--- a/Tools/Luban/DataTables/Datas/Item.xlsx
+++ b/Tools/Luban/DataTables/Datas/Item.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwencheng/UnityProject/2025TTGJ/Tools/Luban/DataTables/Datas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD212DF-195B-9D48-8A48-7602067E8D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>##var</t>
   </si>
@@ -55,22 +61,25 @@
   <si>
     <t>道具描述</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -78,7 +87,8 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF1F2329"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -86,14 +96,16 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +113,8 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF1F2329"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -109,156 +122,13 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,194 +147,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -577,251 +261,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -856,61 +298,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1168,24 +566,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="12.2166666666667" style="1"/>
+    <col min="1" max="16384" width="12.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +607,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +629,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1255,11 +653,17 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1271,7 +675,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="9"/>
@@ -1287,7 +691,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9"/>
@@ -1303,7 +707,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
@@ -1319,7 +723,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9"/>
@@ -1335,7 +739,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9"/>
@@ -1351,7 +755,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="9"/>
@@ -1367,7 +771,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="9"/>
@@ -1383,7 +787,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9"/>
@@ -1399,7 +803,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9"/>
@@ -1415,7 +819,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="9"/>
@@ -1431,7 +835,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="9"/>
@@ -1447,7 +851,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9"/>
@@ -1463,7 +867,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9"/>
@@ -1479,7 +883,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="9"/>
@@ -1495,7 +899,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="9"/>
@@ -1511,7 +915,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9"/>
@@ -1527,7 +931,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="9"/>
@@ -1543,7 +947,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="9"/>
@@ -1559,7 +963,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="9"/>
@@ -1575,7 +979,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="9"/>
@@ -1591,7 +995,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="9"/>
@@ -1607,7 +1011,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="9"/>
@@ -1623,7 +1027,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="9"/>
@@ -1639,7 +1043,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="9"/>
@@ -1655,7 +1059,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="9"/>
@@ -1671,7 +1075,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="9"/>
@@ -1687,7 +1091,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="9"/>
@@ -1703,7 +1107,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="9"/>
@@ -1719,7 +1123,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="9"/>
@@ -1735,7 +1139,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="9"/>
@@ -1751,7 +1155,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="9"/>
@@ -1767,7 +1171,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="9"/>
@@ -1783,7 +1187,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="9"/>
@@ -1799,7 +1203,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="9"/>
@@ -1815,7 +1219,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="9"/>
@@ -1831,7 +1235,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="9"/>
@@ -1847,7 +1251,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="9"/>
@@ -1863,7 +1267,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
@@ -1879,7 +1283,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="9"/>
@@ -1895,7 +1299,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="9"/>
@@ -1911,7 +1315,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="9"/>
@@ -1927,7 +1331,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="9"/>
@@ -1943,7 +1347,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="9"/>
@@ -1959,7 +1363,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="9"/>
@@ -1975,7 +1379,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="9"/>
@@ -1991,7 +1395,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="9"/>
@@ -2007,7 +1411,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="9"/>
@@ -2023,7 +1427,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="9"/>
@@ -2039,7 +1443,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="9"/>
@@ -2055,7 +1459,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="9"/>
@@ -2071,7 +1475,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="9"/>
@@ -2087,7 +1491,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="9"/>
@@ -2103,7 +1507,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="9"/>
@@ -2119,7 +1523,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="9"/>
@@ -2135,7 +1539,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="9"/>
@@ -2151,7 +1555,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="9"/>
@@ -2167,7 +1571,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="9"/>
@@ -2183,7 +1587,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="9"/>
@@ -2199,7 +1603,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="9"/>
@@ -2215,7 +1619,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="9"/>
@@ -2231,7 +1635,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="9"/>
@@ -2247,7 +1651,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="9"/>
@@ -2263,7 +1667,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="9"/>
@@ -2279,7 +1683,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="9"/>
@@ -2295,7 +1699,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="9"/>
@@ -2311,7 +1715,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="9"/>
@@ -2327,7 +1731,7 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="9"/>
@@ -2343,7 +1747,7 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="9"/>
@@ -2359,7 +1763,7 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="9"/>
@@ -2375,7 +1779,7 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="9"/>
@@ -2391,7 +1795,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="9"/>
@@ -2407,7 +1811,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="9"/>
@@ -2423,7 +1827,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="9"/>
@@ -2439,7 +1843,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="9"/>
@@ -2455,7 +1859,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="9"/>
@@ -2471,7 +1875,7 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="9"/>
@@ -2487,7 +1891,7 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="9"/>
@@ -2503,7 +1907,7 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="9"/>
@@ -2519,7 +1923,7 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="9"/>
@@ -2535,7 +1939,7 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="9"/>
@@ -2551,7 +1955,7 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="9"/>
@@ -2567,7 +1971,7 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="9"/>
@@ -2583,7 +1987,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="9"/>
@@ -2599,7 +2003,7 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="9"/>
@@ -2615,7 +2019,7 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="9"/>
@@ -2631,7 +2035,7 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="9"/>
@@ -2647,7 +2051,7 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="9"/>
@@ -2663,7 +2067,7 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="9"/>
@@ -2679,7 +2083,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="9"/>
@@ -2695,7 +2099,7 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="9"/>
@@ -2711,7 +2115,7 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="9"/>
@@ -2727,7 +2131,7 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="9"/>
@@ -2743,7 +2147,7 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="9"/>
@@ -2759,7 +2163,7 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="9"/>
@@ -2775,7 +2179,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="9"/>
@@ -2791,7 +2195,7 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="9"/>
@@ -2807,7 +2211,7 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="9"/>
@@ -2823,7 +2227,7 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="9"/>
@@ -2839,7 +2243,7 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="9"/>
@@ -2855,7 +2259,7 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="9"/>
@@ -2871,7 +2275,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="9"/>
@@ -2887,7 +2291,7 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="9"/>
@@ -2903,7 +2307,7 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="9"/>
@@ -2919,7 +2323,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="9"/>
@@ -2935,7 +2339,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="9"/>
@@ -2951,7 +2355,7 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="9"/>
@@ -2967,7 +2371,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="9"/>
@@ -2983,7 +2387,7 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="9"/>
@@ -2999,7 +2403,7 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="9"/>
@@ -3015,7 +2419,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="9"/>
@@ -3031,7 +2435,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="9"/>
@@ -3047,7 +2451,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="9"/>
@@ -3063,7 +2467,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="9"/>
@@ -3079,7 +2483,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="9"/>
@@ -3095,7 +2499,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="9"/>
@@ -3111,7 +2515,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="9"/>
@@ -3127,7 +2531,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="9"/>
@@ -3143,7 +2547,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="9"/>
@@ -3159,7 +2563,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="9"/>
@@ -3175,7 +2579,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="9"/>
@@ -3191,7 +2595,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="9"/>
@@ -3207,7 +2611,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="9"/>
@@ -3223,7 +2627,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="9"/>
@@ -3239,7 +2643,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="9"/>
@@ -3255,7 +2659,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="9"/>
@@ -3271,7 +2675,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="9"/>
@@ -3287,7 +2691,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="9"/>
@@ -3303,7 +2707,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="9"/>
@@ -3319,7 +2723,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="9"/>
@@ -3335,7 +2739,7 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="9"/>
@@ -3351,7 +2755,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="9"/>
@@ -3367,7 +2771,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="9"/>
@@ -3383,7 +2787,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="9"/>
@@ -3399,7 +2803,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="9"/>
@@ -3415,7 +2819,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="9"/>
@@ -3431,7 +2835,7 @@
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="9"/>
@@ -3447,7 +2851,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="9"/>
@@ -3463,7 +2867,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="9"/>
@@ -3479,7 +2883,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="9"/>
@@ -3495,7 +2899,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="9"/>
@@ -3511,7 +2915,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="9"/>
@@ -3527,7 +2931,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="9"/>
@@ -3543,7 +2947,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="9"/>
@@ -3559,7 +2963,7 @@
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="9"/>
@@ -3575,7 +2979,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="9"/>
@@ -3591,7 +2995,7 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="9"/>
@@ -3607,7 +3011,7 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="9"/>
@@ -3623,7 +3027,7 @@
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="9"/>
@@ -3639,7 +3043,7 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="9"/>
@@ -3655,7 +3059,7 @@
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="9"/>
@@ -3671,7 +3075,7 @@
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="9"/>
@@ -3687,7 +3091,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="9"/>
@@ -3703,7 +3107,7 @@
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="9"/>
@@ -3719,7 +3123,7 @@
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="9"/>
@@ -3735,7 +3139,7 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="9"/>
@@ -3751,7 +3155,7 @@
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="9"/>
@@ -3767,7 +3171,7 @@
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="9"/>
@@ -3783,7 +3187,7 @@
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="9"/>
@@ -3799,7 +3203,7 @@
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="9"/>
@@ -3815,7 +3219,7 @@
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="9"/>
@@ -3831,7 +3235,7 @@
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="9"/>
@@ -3847,7 +3251,7 @@
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="9"/>
@@ -3863,7 +3267,7 @@
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="9"/>
@@ -3879,7 +3283,7 @@
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="9"/>
@@ -3895,7 +3299,7 @@
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="9"/>
@@ -3911,7 +3315,7 @@
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="9"/>
@@ -3927,7 +3331,7 @@
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="9"/>
@@ -3943,7 +3347,7 @@
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="9"/>
@@ -3959,7 +3363,7 @@
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="9"/>
@@ -3975,7 +3379,7 @@
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="9"/>
@@ -3991,7 +3395,7 @@
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="9"/>
@@ -4007,7 +3411,7 @@
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -4020,7 +3424,7 @@
       <c r="J176" s="10"/>
       <c r="K176" s="10"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -4033,7 +3437,7 @@
       <c r="J177" s="10"/>
       <c r="K177" s="10"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -4048,6 +3452,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>